--- a/Examples/ParticipationAnalysis/ModalConfig_DC_test_v4_original.xlsx
+++ b/Examples/ParticipationAnalysis/ModalConfig_DC_test_v4_original.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24477\Desktop\Toolbox\Simplus-Grid-Tool\Examples\ParticipationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C6CAFE-9439-4F6B-A476-06ACB9497017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053F90D9-BEB7-4C81-A82C-DEEFBF488196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{3781B8D9-A20D-4CB1-84DE-C4F6CB32BDBB}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{3781B8D9-A20D-4CB1-84DE-C4F6CB32BDBB}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="12" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="13" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="14" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="276" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="277" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="278" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,242 +35,242 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="88">
   <si>
     <t>Select states for state participation analysis. Only 1 mode should be selected.</t>
   </si>
   <si>
+    <t>write "1" for selection, others for not</t>
+  </si>
+  <si>
+    <t>Apparatus</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>DC_Apparatus1</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Mode1</t>
+  </si>
+  <si>
+    <t>i_i</t>
+  </si>
+  <si>
+    <t>Mode2</t>
+  </si>
+  <si>
+    <t>DC_Apparatus2</t>
+  </si>
+  <si>
+    <t>Mode3</t>
+  </si>
+  <si>
+    <t>Mode4</t>
+  </si>
+  <si>
+    <t>DC_Apparatus3</t>
+  </si>
+  <si>
+    <t>Mode5</t>
+  </si>
+  <si>
+    <t>Mode6</t>
+  </si>
+  <si>
+    <t>DC_Apparatus4</t>
+  </si>
+  <si>
+    <t>Mode7</t>
+  </si>
+  <si>
+    <t>Mode8</t>
+  </si>
+  <si>
+    <t>DC_Apparatus5</t>
+  </si>
+  <si>
+    <t>Mode9</t>
+  </si>
+  <si>
+    <t>Mode10</t>
+  </si>
+  <si>
+    <t>-129.12+130.99i</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>x_br1-1_1</t>
+  </si>
+  <si>
+    <t>Mode11</t>
+  </si>
+  <si>
+    <t>-129.12-130.99i</t>
+  </si>
+  <si>
+    <t>x_br1-2_1</t>
+  </si>
+  <si>
+    <t>Mode12</t>
+  </si>
+  <si>
+    <t>-57.55+73.24i</t>
+  </si>
+  <si>
+    <t>x_br1-3_1</t>
+  </si>
+  <si>
+    <t>Mode13</t>
+  </si>
+  <si>
+    <t>-57.55-73.24i</t>
+  </si>
+  <si>
+    <t>Mode14</t>
+  </si>
+  <si>
+    <t>-96.86+112.07i</t>
+  </si>
+  <si>
+    <t>Mode15</t>
+  </si>
+  <si>
+    <t>-96.86-112.07i</t>
+  </si>
+  <si>
+    <t>Mode16</t>
+  </si>
+  <si>
+    <t>-97.53+117.99i</t>
+  </si>
+  <si>
+    <t>Mode17</t>
+  </si>
+  <si>
+    <t>-97.53-117.99i</t>
+  </si>
+  <si>
+    <t>x_br2-2_1</t>
+  </si>
+  <si>
+    <t>Mode18</t>
+  </si>
+  <si>
+    <t>x_br2-3_1</t>
+  </si>
+  <si>
+    <t>Mode19</t>
+  </si>
+  <si>
+    <t>Mode20</t>
+  </si>
+  <si>
+    <t>Mode21</t>
+  </si>
+  <si>
+    <t>Mode22</t>
+  </si>
+  <si>
+    <t>Mode23</t>
+  </si>
+  <si>
+    <t>Mode24</t>
+  </si>
+  <si>
+    <t>x_br3-3_1</t>
+  </si>
+  <si>
+    <t>Mode25</t>
+  </si>
+  <si>
+    <t>x_br3-4_1</t>
+  </si>
+  <si>
+    <t>Mode26</t>
+  </si>
+  <si>
+    <t>x_br3-5_1</t>
+  </si>
+  <si>
+    <t>Mode27</t>
+  </si>
+  <si>
+    <t>-1.67+0.00i</t>
+  </si>
+  <si>
+    <t>Mode28</t>
+  </si>
+  <si>
+    <t>-1.67-0.00i</t>
+  </si>
+  <si>
+    <t>Mode29</t>
+  </si>
+  <si>
+    <t>Mode30</t>
+  </si>
+  <si>
+    <t>Mode31</t>
+  </si>
+  <si>
+    <t>x_br4-4_1</t>
+  </si>
+  <si>
+    <t>Mode32</t>
+  </si>
+  <si>
+    <t>x_br4-5_1</t>
+  </si>
+  <si>
+    <t>Mode33</t>
+  </si>
+  <si>
+    <t>Mode34</t>
+  </si>
+  <si>
+    <t>Mode35</t>
+  </si>
+  <si>
+    <t>Mode36</t>
+  </si>
+  <si>
+    <t>Mode37</t>
+  </si>
+  <si>
+    <t>Mode38</t>
+  </si>
+  <si>
+    <t>Select apparatuses and mode for bode-plot and Modal Layer1&amp;2 analysis</t>
+  </si>
+  <si>
     <t>write "1" for for selection, others for not</t>
   </si>
   <si>
-    <t>Apparatus</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>DC_Apparatus1</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>Mode1</t>
-  </si>
-  <si>
-    <t>i_i</t>
-  </si>
-  <si>
-    <t>Mode2</t>
-  </si>
-  <si>
-    <t>DC_Apparatus2</t>
-  </si>
-  <si>
-    <t>Mode3</t>
-  </si>
-  <si>
-    <t>Mode4</t>
-  </si>
-  <si>
-    <t>DC_Apparatus3</t>
-  </si>
-  <si>
-    <t>Mode5</t>
-  </si>
-  <si>
-    <t>Mode6</t>
-  </si>
-  <si>
-    <t>DC_Apparatus4</t>
-  </si>
-  <si>
-    <t>Mode7</t>
-  </si>
-  <si>
-    <t>Mode8</t>
-  </si>
-  <si>
-    <t>DC_Apparatus5</t>
-  </si>
-  <si>
-    <t>Mode9</t>
-  </si>
-  <si>
-    <t>Mode10</t>
-  </si>
-  <si>
-    <t>-129.12+130.99i</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>x_br1-1_1</t>
-  </si>
-  <si>
-    <t>Mode11</t>
-  </si>
-  <si>
-    <t>-129.12-130.99i</t>
-  </si>
-  <si>
-    <t>x_br1-2_1</t>
-  </si>
-  <si>
-    <t>Mode12</t>
-  </si>
-  <si>
-    <t>-57.55+73.24i</t>
-  </si>
-  <si>
-    <t>x_br1-3_1</t>
-  </si>
-  <si>
-    <t>Mode13</t>
-  </si>
-  <si>
-    <t>-57.55-73.24i</t>
-  </si>
-  <si>
-    <t>Mode14</t>
-  </si>
-  <si>
-    <t>-96.86+112.07i</t>
-  </si>
-  <si>
-    <t>Mode15</t>
-  </si>
-  <si>
-    <t>-96.86-112.07i</t>
-  </si>
-  <si>
-    <t>Mode16</t>
-  </si>
-  <si>
-    <t>-97.53+117.99i</t>
-  </si>
-  <si>
-    <t>Mode17</t>
-  </si>
-  <si>
-    <t>-97.53-117.99i</t>
-  </si>
-  <si>
-    <t>x_br2-2_1</t>
-  </si>
-  <si>
-    <t>Mode18</t>
-  </si>
-  <si>
-    <t>x_br2-3_1</t>
-  </si>
-  <si>
-    <t>Mode19</t>
-  </si>
-  <si>
-    <t>Mode20</t>
-  </si>
-  <si>
-    <t>-5.00+0.00i</t>
-  </si>
-  <si>
-    <t>Mode21</t>
-  </si>
-  <si>
-    <t>-5.00-0.00i</t>
-  </si>
-  <si>
-    <t>Mode22</t>
-  </si>
-  <si>
-    <t>Mode23</t>
-  </si>
-  <si>
-    <t>-1.67+0.00i</t>
-  </si>
-  <si>
-    <t>Mode24</t>
-  </si>
-  <si>
-    <t>-1.67-0.00i</t>
-  </si>
-  <si>
-    <t>x_br3-3_1</t>
-  </si>
-  <si>
-    <t>Mode25</t>
-  </si>
-  <si>
-    <t>x_br3-4_1</t>
-  </si>
-  <si>
-    <t>Mode26</t>
-  </si>
-  <si>
-    <t>x_br3-5_1</t>
-  </si>
-  <si>
-    <t>Mode27</t>
-  </si>
-  <si>
-    <t>Mode28</t>
-  </si>
-  <si>
-    <t>Mode29</t>
-  </si>
-  <si>
-    <t>Mode30</t>
-  </si>
-  <si>
-    <t>Mode31</t>
-  </si>
-  <si>
-    <t>x_br4-4_1</t>
-  </si>
-  <si>
-    <t>Mode32</t>
-  </si>
-  <si>
-    <t>x_br4-5_1</t>
-  </si>
-  <si>
-    <t>Mode33</t>
-  </si>
-  <si>
-    <t>Mode34</t>
-  </si>
-  <si>
-    <t>Mode35</t>
-  </si>
-  <si>
-    <t>Mode36</t>
-  </si>
-  <si>
-    <t>Mode37</t>
-  </si>
-  <si>
-    <t>Mode38</t>
-  </si>
-  <si>
-    <t>Select apparatuses and mode for bode-plot and Modal Layer1&amp;2 analysis</t>
-  </si>
-  <si>
     <t>Apparatus selection for Layer1&amp;2</t>
   </si>
   <si>
     <t>Bodeplot axis selection</t>
   </si>
   <si>
+    <t>DC system</t>
+  </si>
+  <si>
     <t>Mode selection for Layer 1&amp;2&amp;3</t>
   </si>
   <si>
@@ -280,16 +280,7 @@
     <t>Axis</t>
   </si>
   <si>
-    <t>d-d</t>
-  </si>
-  <si>
-    <t>d-q</t>
-  </si>
-  <si>
-    <t>q-d</t>
-  </si>
-  <si>
-    <t>q-q</t>
+    <t>dc</t>
   </si>
   <si>
     <t>Select the function you wish to enable</t>
@@ -670,7 +661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7489D1-7BAC-47F2-8D9F-60CD8BD9D2FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511C9023-D603-4F8A-B538-B950A24D7081}">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1060,8 +1051,8 @@
       <c r="E26" t="s">
         <v>47</v>
       </c>
-      <c r="F26" t="s">
-        <v>48</v>
+      <c r="F26">
+        <v>-5</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1075,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="F27">
+        <v>-5</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1092,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F28">
         <v>-5</v>
@@ -1109,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>-1.67</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1126,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="F30">
+        <v>-1.67</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1137,13 +1128,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>-1.67</v>
@@ -1154,13 +1145,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F32">
         <v>-1.67</v>
@@ -1171,16 +1162,16 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33">
-        <v>-1.67</v>
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1188,16 +1179,16 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1205,16 +1196,16 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1222,16 +1213,16 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1239,16 +1230,16 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
         <v>58</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1256,16 +1247,16 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1273,16 +1264,16 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="F39">
+        <v>-1.67</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1290,16 +1281,16 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
         <v>68</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40">
-        <v>-1.67</v>
+      <c r="F40" t="s">
+        <v>58</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1307,16 +1298,16 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" t="s">
         <v>60</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41">
-        <v>-1.67</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1324,16 +1315,16 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="F42">
+        <v>-1.67</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1341,16 +1332,16 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" t="s">
-        <v>55</v>
+        <v>71</v>
+      </c>
+      <c r="F43">
+        <v>-1.67</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1358,13 +1349,13 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F44">
         <v>-1.67</v>
@@ -1380,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B3D728-DB7C-44A9-92F7-CCA1EDA9589C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6497417D-1E4B-444C-AEF1-40C0A13C79E5}">
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1391,19 +1382,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>77</v>
       </c>
       <c r="G6" t="s">
@@ -1478,12 +1472,6 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
@@ -1507,12 +1495,6 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
@@ -1536,12 +1518,6 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
@@ -1739,8 +1715,8 @@
       <c r="G27" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
-        <v>48</v>
+      <c r="H27">
+        <v>-5</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1748,10 +1724,10 @@
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="H28">
+        <v>-5</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1759,7 +1735,7 @@
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H29">
         <v>-5</v>
@@ -1770,10 +1746,10 @@
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>-1.67</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1781,10 +1757,10 @@
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="H31">
+        <v>-1.67</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1792,7 +1768,7 @@
     </row>
     <row r="32" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H32">
         <v>-1.67</v>
@@ -1803,7 +1779,7 @@
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H33">
         <v>-1.67</v>
@@ -1814,10 +1790,10 @@
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34">
-        <v>-1.67</v>
+        <v>57</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1825,10 +1801,10 @@
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1836,10 +1812,10 @@
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1847,10 +1823,10 @@
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1858,10 +1834,10 @@
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1869,10 +1845,10 @@
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1880,10 +1856,10 @@
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="H40">
+        <v>-1.67</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1891,10 +1867,10 @@
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41">
-        <v>-1.67</v>
+        <v>68</v>
+      </c>
+      <c r="H41" t="s">
+        <v>58</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1902,10 +1878,10 @@
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42">
-        <v>-1.67</v>
+        <v>69</v>
+      </c>
+      <c r="H42" t="s">
+        <v>60</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1913,10 +1889,10 @@
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="H43">
+        <v>-1.67</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1924,10 +1900,10 @@
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" t="s">
-        <v>55</v>
+        <v>71</v>
+      </c>
+      <c r="H44">
+        <v>-1.67</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -1935,7 +1911,7 @@
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H45">
         <v>-1.67</v>
@@ -1951,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1693C79-E1C0-4B77-988C-C93D8666DF87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7A8063-C594-447C-8FF5-724E55FA8000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1962,17 +1938,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1980,7 +1956,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1988,15 +1964,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2004,7 +1980,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>1</v>

--- a/Examples/ParticipationAnalysis/ModalConfig_DC_test_v4_original.xlsx
+++ b/Examples/ParticipationAnalysis/ModalConfig_DC_test_v4_original.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24477\Desktop\Toolbox\Simplus-Grid-Tool\Examples\ParticipationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053F90D9-BEB7-4C81-A82C-DEEFBF488196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF87D5-AB04-480E-9CE8-3F2E835B9CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{3781B8D9-A20D-4CB1-84DE-C4F6CB32BDBB}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{3781B8D9-A20D-4CB1-84DE-C4F6CB32BDBB}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="276" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="277" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="278" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="288" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="289" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="290" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="90">
   <si>
     <t>Select states for state participation analysis. Only 1 mode should be selected.</t>
   </si>
@@ -181,18 +181,30 @@
     <t>Mode20</t>
   </si>
   <si>
+    <t>-5.00+0.00i</t>
+  </si>
+  <si>
     <t>Mode21</t>
   </si>
   <si>
+    <t>-5.00-0.00i</t>
+  </si>
+  <si>
     <t>Mode22</t>
   </si>
   <si>
     <t>Mode23</t>
   </si>
   <si>
+    <t>-1.67+0.00i</t>
+  </si>
+  <si>
     <t>Mode24</t>
   </si>
   <si>
+    <t>-1.67-0.00i</t>
+  </si>
+  <si>
     <t>x_br3-3_1</t>
   </si>
   <si>
@@ -211,13 +223,7 @@
     <t>Mode27</t>
   </si>
   <si>
-    <t>-1.67+0.00i</t>
-  </si>
-  <si>
     <t>Mode28</t>
-  </si>
-  <si>
-    <t>-1.67-0.00i</t>
   </si>
   <si>
     <t>Mode29</t>
@@ -661,7 +667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511C9023-D603-4F8A-B538-B950A24D7081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F890146-EAED-4DE6-8128-6A098AC6BFF4}">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1051,8 +1057,8 @@
       <c r="E26" t="s">
         <v>47</v>
       </c>
-      <c r="F26">
-        <v>-5</v>
+      <c r="F26" t="s">
+        <v>48</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1066,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27">
-        <v>-5</v>
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1083,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F28">
         <v>-5</v>
@@ -1100,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29">
-        <v>-1.67</v>
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1117,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30">
-        <v>-1.67</v>
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1128,13 +1134,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F31">
         <v>-1.67</v>
@@ -1145,13 +1151,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F32">
         <v>-1.67</v>
@@ -1162,16 +1168,16 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="F33">
+        <v>-1.67</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1179,16 +1185,16 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1196,16 +1202,16 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1213,16 +1219,16 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1230,16 +1236,16 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1247,16 +1253,16 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1264,16 +1270,16 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39">
-        <v>-1.67</v>
+        <v>69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1281,16 +1287,16 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="F40">
+        <v>-1.67</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1298,16 +1304,16 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="F41">
+        <v>-1.67</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1315,16 +1321,16 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42">
-        <v>-1.67</v>
+        <v>72</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1332,16 +1338,16 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43">
-        <v>-1.67</v>
+        <v>73</v>
+      </c>
+      <c r="F43" t="s">
+        <v>55</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1349,13 +1355,13 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F44">
         <v>-1.67</v>
@@ -1371,7 +1377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6497417D-1E4B-444C-AEF1-40C0A13C79E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A88C75C-6FB7-4B16-BCBF-E92B293A30C9}">
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1382,29 +1388,29 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1415,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -1444,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1715,8 +1721,8 @@
       <c r="G27" t="s">
         <v>47</v>
       </c>
-      <c r="H27">
-        <v>-5</v>
+      <c r="H27" t="s">
+        <v>48</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1724,10 +1730,10 @@
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28">
-        <v>-5</v>
+        <v>49</v>
+      </c>
+      <c r="H28" t="s">
+        <v>50</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1735,7 +1741,7 @@
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H29">
         <v>-5</v>
@@ -1746,10 +1752,10 @@
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30">
-        <v>-1.67</v>
+        <v>52</v>
+      </c>
+      <c r="H30" t="s">
+        <v>53</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1757,10 +1763,10 @@
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31">
-        <v>-1.67</v>
+        <v>54</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1768,7 +1774,7 @@
     </row>
     <row r="32" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H32">
         <v>-1.67</v>
@@ -1779,7 +1785,7 @@
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H33">
         <v>-1.67</v>
@@ -1790,10 +1796,10 @@
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="H34">
+        <v>-1.67</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1801,10 +1807,10 @@
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1812,10 +1818,10 @@
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1823,10 +1829,10 @@
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1834,10 +1840,10 @@
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1845,10 +1851,10 @@
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1856,10 +1862,10 @@
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40">
-        <v>-1.67</v>
+        <v>69</v>
+      </c>
+      <c r="H40" t="s">
+        <v>55</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1867,10 +1873,10 @@
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
-        <v>68</v>
-      </c>
-      <c r="H41" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="H41">
+        <v>-1.67</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1878,10 +1884,10 @@
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="H42">
+        <v>-1.67</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1889,10 +1895,10 @@
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43">
-        <v>-1.67</v>
+        <v>72</v>
+      </c>
+      <c r="H43" t="s">
+        <v>53</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1900,10 +1906,10 @@
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44">
-        <v>-1.67</v>
+        <v>73</v>
+      </c>
+      <c r="H44" t="s">
+        <v>55</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -1911,7 +1917,7 @@
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H45">
         <v>-1.67</v>
@@ -1927,7 +1933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7A8063-C594-447C-8FF5-724E55FA8000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A86B5D-9860-401A-A3DF-9BE2B258DCE5}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1938,17 +1944,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1956,7 +1962,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1964,7 +1970,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1972,7 +1978,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1980,7 +1986,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <v>1</v>
